--- a/analysis/pre_gemini_data/participant360/easy.xlsx
+++ b/analysis/pre_gemini_data/participant360/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,81 +422,73 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>conditional statement</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>literals</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>method call 1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>method call 2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>method call 3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Method decleration</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>parameters</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>retrun statement</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var 1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var 2</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,243 +514,259 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dwells with fixations</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
       <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
-        <v>83</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>26</v>
+      </c>
       <c r="L4" t="n">
-        <v>19</v>
-      </c>
-      <c r="M4" t="n">
-        <v>82</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>4070.91</v>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>26436.41</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>3011.58</v>
       </c>
       <c r="E5" t="n">
-        <v>379</v>
+        <v>650.66</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>567.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>183.43</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2143.98</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>8066.63</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>8250.77</v>
+      </c>
       <c r="L5" t="n">
-        <v>29</v>
-      </c>
-      <c r="M5" t="n">
-        <v>221</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+        <v>34109.33</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>175.14</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286.41</v>
+        <v>3.46</v>
       </c>
       <c r="C6" t="n">
-        <v>263.63</v>
+        <v>22.49</v>
       </c>
       <c r="D6" t="n">
-        <v>332.03</v>
+        <v>2.56</v>
       </c>
       <c r="E6" t="n">
-        <v>204.51</v>
+        <v>0.55</v>
       </c>
       <c r="F6" t="n">
-        <v>239.85</v>
+        <v>0.48</v>
       </c>
       <c r="G6" t="n">
-        <v>189.1</v>
+        <v>0.16</v>
       </c>
       <c r="H6" t="n">
-        <v>183.43</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>428.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>332.75</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>6.86</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>7.02</v>
+      </c>
       <c r="L6" t="n">
-        <v>298.03</v>
-      </c>
-      <c r="M6" t="n">
-        <v>257.06</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>175.14</v>
-      </c>
+        <v>29.08</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>287.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>376.45</v>
+      </c>
+      <c r="E7" t="n">
+        <v>325.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>183.43</v>
+      </c>
+      <c r="H7" t="n">
+        <v>428.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>350.72</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>317.34</v>
+      </c>
+      <c r="L7" t="n">
+        <v>254.55</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>175.14</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>First fixation duration (ms)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>166.89</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1001.11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>750.8099999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
+        <v>166.86</v>
+      </c>
+      <c r="F8" t="n">
         <v>166.88</v>
       </c>
-      <c r="F7" t="n">
-        <v>166.86</v>
-      </c>
-      <c r="G7" t="n">
-        <v>166.88</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G8" t="n">
         <v>183.43</v>
       </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
         <v>750.8099999999999</v>
       </c>
-      <c r="J7" t="n">
+      <c r="I8" t="n">
         <v>116.77</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>133.64</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L8" t="n">
         <v>350.37</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>175.14</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
